--- a/GEIMS/_ImportData/LKG-A.xlsx
+++ b/GEIMS/_ImportData/LKG-A.xlsx
@@ -2050,12 +2050,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2147,7 +2153,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2324,6 +2330,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2401,118 +2411,118 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:65536"/>
+  <dimension ref="1:45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J35" activeCellId="0" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="20.25"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="44" min="43" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="1" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="1" width="20.25"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="1" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="1" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="1" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="1" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="1" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="1" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="1" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="64" min="63" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="1" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="1" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="1" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="1" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="1" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="1" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="1" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="1" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="1" width="20.25"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="82" min="80" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="91" min="86" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="92" min="92" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="93" min="93" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="94" min="94" style="1" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="95" min="95" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="97" min="97" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="98" min="98" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="99" min="99" style="1" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="100" min="100" style="1" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="101" min="101" style="1" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="102" min="102" style="1" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="103" min="103" style="1" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="104" min="104" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="105" min="105" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="106" min="106" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="107" min="107" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="108" min="108" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="109" min="109" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="110" min="110" style="1" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="111" min="111" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="112" min="112" style="1" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="113" min="113" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="114" min="114" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="115" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.25"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="44" min="43" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="1" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="1" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="1" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="1" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="1" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="1" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="64" min="63" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="1" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="1" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="1" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="1" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="1" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="1" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="82" min="80" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="91" min="86" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="92" min="92" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="93" min="93" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="94" min="94" style="1" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="95" min="95" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="97" min="97" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="98" min="98" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="99" min="99" style="1" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="100" min="100" style="1" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="101" min="101" style="1" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="102" min="102" style="1" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="103" min="103" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="104" min="104" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="105" min="105" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="106" min="106" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="107" min="107" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="108" min="108" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="109" min="109" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="110" min="110" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="111" min="111" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="112" min="112" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="113" min="113" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="114" min="114" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="115" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39126,7 +39136,7 @@
       <c r="I35" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="43" t="s">
         <v>509</v>
       </c>
       <c r="K35" s="4" t="s">
@@ -40269,6 +40279,8 @@
       <c r="AMJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
+      <c r="B36" s="0"/>
       <c r="C36" s="4" t="s">
         <v>517</v>
       </c>
@@ -40341,10 +40353,10 @@
       <c r="Z36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA36" s="43" t="n">
+      <c r="AA36" s="44" t="n">
         <v>2471</v>
       </c>
-      <c r="AB36" s="43" t="n">
+      <c r="AB36" s="44" t="n">
         <v>2471</v>
       </c>
       <c r="AC36" s="4" t="s">
@@ -40356,7 +40368,7 @@
       <c r="AE36" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="AF36" s="43" t="n">
+      <c r="AF36" s="44" t="n">
         <v>2471</v>
       </c>
       <c r="AG36" s="4" t="s">
@@ -40401,6 +40413,9 @@
       <c r="AT36" s="4" t="s">
         <v>246</v>
       </c>
+      <c r="AU36" s="0"/>
+      <c r="AV36" s="0"/>
+      <c r="AW36" s="0"/>
       <c r="AX36" s="4" t="s">
         <v>530</v>
       </c>
@@ -40425,6 +40440,7 @@
       <c r="BE36" s="4" t="n">
         <v>9879108873</v>
       </c>
+      <c r="BF36" s="0"/>
       <c r="BG36" s="4" t="s">
         <v>530</v>
       </c>
@@ -40449,12 +40465,14 @@
       <c r="BN36" s="4" t="n">
         <v>9313540990</v>
       </c>
+      <c r="BO36" s="0"/>
       <c r="BP36" s="4" t="s">
         <v>409</v>
       </c>
       <c r="BQ36" s="4" t="s">
         <v>252</v>
       </c>
+      <c r="BR36" s="0"/>
       <c r="BS36" s="4" t="s">
         <v>410</v>
       </c>
@@ -40468,9 +40486,21 @@
       <c r="BW36" s="4" t="n">
         <v>9265293841</v>
       </c>
+      <c r="BX36" s="0"/>
+      <c r="BY36" s="0"/>
+      <c r="BZ36" s="0"/>
+      <c r="CA36" s="0"/>
+      <c r="CB36" s="0"/>
+      <c r="CC36" s="0"/>
+      <c r="CD36" s="0"/>
       <c r="CE36" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CF36" s="0"/>
+      <c r="CG36" s="0"/>
+      <c r="CH36" s="0"/>
+      <c r="CI36" s="0"/>
+      <c r="CJ36" s="0"/>
       <c r="CK36" s="4" t="s">
         <v>254</v>
       </c>
@@ -40480,9 +40510,939 @@
       <c r="CM36" s="4" t="s">
         <v>254</v>
       </c>
+      <c r="CN36" s="0"/>
+      <c r="CO36" s="0"/>
+      <c r="CP36" s="0"/>
+      <c r="CQ36" s="0"/>
+      <c r="CR36" s="0"/>
+      <c r="CS36" s="0"/>
+      <c r="CT36" s="0"/>
       <c r="CU36" s="41"/>
       <c r="CV36" s="41"/>
+      <c r="CW36" s="0"/>
+      <c r="CX36" s="0"/>
+      <c r="CY36" s="0"/>
+      <c r="CZ36" s="0"/>
+      <c r="DA36" s="0"/>
+      <c r="DB36" s="0"/>
+      <c r="DC36" s="0"/>
+      <c r="DD36" s="0"/>
+      <c r="DE36" s="0"/>
+      <c r="DF36" s="0"/>
+      <c r="DG36" s="0"/>
       <c r="DH36" s="4"/>
+      <c r="DI36" s="0"/>
+      <c r="DJ36" s="0"/>
+      <c r="DK36" s="0"/>
+      <c r="DL36" s="0"/>
+      <c r="DM36" s="0"/>
+      <c r="DN36" s="0"/>
+      <c r="DO36" s="0"/>
+      <c r="DP36" s="0"/>
+      <c r="DQ36" s="0"/>
+      <c r="DR36" s="0"/>
+      <c r="DS36" s="0"/>
+      <c r="DT36" s="0"/>
+      <c r="DU36" s="0"/>
+      <c r="DV36" s="0"/>
+      <c r="DW36" s="0"/>
+      <c r="DX36" s="0"/>
+      <c r="DY36" s="0"/>
+      <c r="DZ36" s="0"/>
+      <c r="EA36" s="0"/>
+      <c r="EB36" s="0"/>
+      <c r="EC36" s="0"/>
+      <c r="ED36" s="0"/>
+      <c r="EE36" s="0"/>
+      <c r="EF36" s="0"/>
+      <c r="EG36" s="0"/>
+      <c r="EH36" s="0"/>
+      <c r="EI36" s="0"/>
+      <c r="EJ36" s="0"/>
+      <c r="EK36" s="0"/>
+      <c r="EL36" s="0"/>
+      <c r="EM36" s="0"/>
+      <c r="EN36" s="0"/>
+      <c r="EO36" s="0"/>
+      <c r="EP36" s="0"/>
+      <c r="EQ36" s="0"/>
+      <c r="ER36" s="0"/>
+      <c r="ES36" s="0"/>
+      <c r="ET36" s="0"/>
+      <c r="EU36" s="0"/>
+      <c r="EV36" s="0"/>
+      <c r="EW36" s="0"/>
+      <c r="EX36" s="0"/>
+      <c r="EY36" s="0"/>
+      <c r="EZ36" s="0"/>
+      <c r="FA36" s="0"/>
+      <c r="FB36" s="0"/>
+      <c r="FC36" s="0"/>
+      <c r="FD36" s="0"/>
+      <c r="FE36" s="0"/>
+      <c r="FF36" s="0"/>
+      <c r="FG36" s="0"/>
+      <c r="FH36" s="0"/>
+      <c r="FI36" s="0"/>
+      <c r="FJ36" s="0"/>
+      <c r="FK36" s="0"/>
+      <c r="FL36" s="0"/>
+      <c r="FM36" s="0"/>
+      <c r="FN36" s="0"/>
+      <c r="FO36" s="0"/>
+      <c r="FP36" s="0"/>
+      <c r="FQ36" s="0"/>
+      <c r="FR36" s="0"/>
+      <c r="FS36" s="0"/>
+      <c r="FT36" s="0"/>
+      <c r="FU36" s="0"/>
+      <c r="FV36" s="0"/>
+      <c r="FW36" s="0"/>
+      <c r="FX36" s="0"/>
+      <c r="FY36" s="0"/>
+      <c r="FZ36" s="0"/>
+      <c r="GA36" s="0"/>
+      <c r="GB36" s="0"/>
+      <c r="GC36" s="0"/>
+      <c r="GD36" s="0"/>
+      <c r="GE36" s="0"/>
+      <c r="GF36" s="0"/>
+      <c r="GG36" s="0"/>
+      <c r="GH36" s="0"/>
+      <c r="GI36" s="0"/>
+      <c r="GJ36" s="0"/>
+      <c r="GK36" s="0"/>
+      <c r="GL36" s="0"/>
+      <c r="GM36" s="0"/>
+      <c r="GN36" s="0"/>
+      <c r="GO36" s="0"/>
+      <c r="GP36" s="0"/>
+      <c r="GQ36" s="0"/>
+      <c r="GR36" s="0"/>
+      <c r="GS36" s="0"/>
+      <c r="GT36" s="0"/>
+      <c r="GU36" s="0"/>
+      <c r="GV36" s="0"/>
+      <c r="GW36" s="0"/>
+      <c r="GX36" s="0"/>
+      <c r="GY36" s="0"/>
+      <c r="GZ36" s="0"/>
+      <c r="HA36" s="0"/>
+      <c r="HB36" s="0"/>
+      <c r="HC36" s="0"/>
+      <c r="HD36" s="0"/>
+      <c r="HE36" s="0"/>
+      <c r="HF36" s="0"/>
+      <c r="HG36" s="0"/>
+      <c r="HH36" s="0"/>
+      <c r="HI36" s="0"/>
+      <c r="HJ36" s="0"/>
+      <c r="HK36" s="0"/>
+      <c r="HL36" s="0"/>
+      <c r="HM36" s="0"/>
+      <c r="HN36" s="0"/>
+      <c r="HO36" s="0"/>
+      <c r="HP36" s="0"/>
+      <c r="HQ36" s="0"/>
+      <c r="HR36" s="0"/>
+      <c r="HS36" s="0"/>
+      <c r="HT36" s="0"/>
+      <c r="HU36" s="0"/>
+      <c r="HV36" s="0"/>
+      <c r="HW36" s="0"/>
+      <c r="HX36" s="0"/>
+      <c r="HY36" s="0"/>
+      <c r="HZ36" s="0"/>
+      <c r="IA36" s="0"/>
+      <c r="IB36" s="0"/>
+      <c r="IC36" s="0"/>
+      <c r="ID36" s="0"/>
+      <c r="IE36" s="0"/>
+      <c r="IF36" s="0"/>
+      <c r="IG36" s="0"/>
+      <c r="IH36" s="0"/>
+      <c r="II36" s="0"/>
+      <c r="IJ36" s="0"/>
+      <c r="IK36" s="0"/>
+      <c r="IL36" s="0"/>
+      <c r="IM36" s="0"/>
+      <c r="IN36" s="0"/>
+      <c r="IO36" s="0"/>
+      <c r="IP36" s="0"/>
+      <c r="IQ36" s="0"/>
+      <c r="IR36" s="0"/>
+      <c r="IS36" s="0"/>
+      <c r="IT36" s="0"/>
+      <c r="IU36" s="0"/>
+      <c r="IV36" s="0"/>
+      <c r="IW36" s="0"/>
+      <c r="IX36" s="0"/>
+      <c r="IY36" s="0"/>
+      <c r="IZ36" s="0"/>
+      <c r="JA36" s="0"/>
+      <c r="JB36" s="0"/>
+      <c r="JC36" s="0"/>
+      <c r="JD36" s="0"/>
+      <c r="JE36" s="0"/>
+      <c r="JF36" s="0"/>
+      <c r="JG36" s="0"/>
+      <c r="JH36" s="0"/>
+      <c r="JI36" s="0"/>
+      <c r="JJ36" s="0"/>
+      <c r="JK36" s="0"/>
+      <c r="JL36" s="0"/>
+      <c r="JM36" s="0"/>
+      <c r="JN36" s="0"/>
+      <c r="JO36" s="0"/>
+      <c r="JP36" s="0"/>
+      <c r="JQ36" s="0"/>
+      <c r="JR36" s="0"/>
+      <c r="JS36" s="0"/>
+      <c r="JT36" s="0"/>
+      <c r="JU36" s="0"/>
+      <c r="JV36" s="0"/>
+      <c r="JW36" s="0"/>
+      <c r="JX36" s="0"/>
+      <c r="JY36" s="0"/>
+      <c r="JZ36" s="0"/>
+      <c r="KA36" s="0"/>
+      <c r="KB36" s="0"/>
+      <c r="KC36" s="0"/>
+      <c r="KD36" s="0"/>
+      <c r="KE36" s="0"/>
+      <c r="KF36" s="0"/>
+      <c r="KG36" s="0"/>
+      <c r="KH36" s="0"/>
+      <c r="KI36" s="0"/>
+      <c r="KJ36" s="0"/>
+      <c r="KK36" s="0"/>
+      <c r="KL36" s="0"/>
+      <c r="KM36" s="0"/>
+      <c r="KN36" s="0"/>
+      <c r="KO36" s="0"/>
+      <c r="KP36" s="0"/>
+      <c r="KQ36" s="0"/>
+      <c r="KR36" s="0"/>
+      <c r="KS36" s="0"/>
+      <c r="KT36" s="0"/>
+      <c r="KU36" s="0"/>
+      <c r="KV36" s="0"/>
+      <c r="KW36" s="0"/>
+      <c r="KX36" s="0"/>
+      <c r="KY36" s="0"/>
+      <c r="KZ36" s="0"/>
+      <c r="LA36" s="0"/>
+      <c r="LB36" s="0"/>
+      <c r="LC36" s="0"/>
+      <c r="LD36" s="0"/>
+      <c r="LE36" s="0"/>
+      <c r="LF36" s="0"/>
+      <c r="LG36" s="0"/>
+      <c r="LH36" s="0"/>
+      <c r="LI36" s="0"/>
+      <c r="LJ36" s="0"/>
+      <c r="LK36" s="0"/>
+      <c r="LL36" s="0"/>
+      <c r="LM36" s="0"/>
+      <c r="LN36" s="0"/>
+      <c r="LO36" s="0"/>
+      <c r="LP36" s="0"/>
+      <c r="LQ36" s="0"/>
+      <c r="LR36" s="0"/>
+      <c r="LS36" s="0"/>
+      <c r="LT36" s="0"/>
+      <c r="LU36" s="0"/>
+      <c r="LV36" s="0"/>
+      <c r="LW36" s="0"/>
+      <c r="LX36" s="0"/>
+      <c r="LY36" s="0"/>
+      <c r="LZ36" s="0"/>
+      <c r="MA36" s="0"/>
+      <c r="MB36" s="0"/>
+      <c r="MC36" s="0"/>
+      <c r="MD36" s="0"/>
+      <c r="ME36" s="0"/>
+      <c r="MF36" s="0"/>
+      <c r="MG36" s="0"/>
+      <c r="MH36" s="0"/>
+      <c r="MI36" s="0"/>
+      <c r="MJ36" s="0"/>
+      <c r="MK36" s="0"/>
+      <c r="ML36" s="0"/>
+      <c r="MM36" s="0"/>
+      <c r="MN36" s="0"/>
+      <c r="MO36" s="0"/>
+      <c r="MP36" s="0"/>
+      <c r="MQ36" s="0"/>
+      <c r="MR36" s="0"/>
+      <c r="MS36" s="0"/>
+      <c r="MT36" s="0"/>
+      <c r="MU36" s="0"/>
+      <c r="MV36" s="0"/>
+      <c r="MW36" s="0"/>
+      <c r="MX36" s="0"/>
+      <c r="MY36" s="0"/>
+      <c r="MZ36" s="0"/>
+      <c r="NA36" s="0"/>
+      <c r="NB36" s="0"/>
+      <c r="NC36" s="0"/>
+      <c r="ND36" s="0"/>
+      <c r="NE36" s="0"/>
+      <c r="NF36" s="0"/>
+      <c r="NG36" s="0"/>
+      <c r="NH36" s="0"/>
+      <c r="NI36" s="0"/>
+      <c r="NJ36" s="0"/>
+      <c r="NK36" s="0"/>
+      <c r="NL36" s="0"/>
+      <c r="NM36" s="0"/>
+      <c r="NN36" s="0"/>
+      <c r="NO36" s="0"/>
+      <c r="NP36" s="0"/>
+      <c r="NQ36" s="0"/>
+      <c r="NR36" s="0"/>
+      <c r="NS36" s="0"/>
+      <c r="NT36" s="0"/>
+      <c r="NU36" s="0"/>
+      <c r="NV36" s="0"/>
+      <c r="NW36" s="0"/>
+      <c r="NX36" s="0"/>
+      <c r="NY36" s="0"/>
+      <c r="NZ36" s="0"/>
+      <c r="OA36" s="0"/>
+      <c r="OB36" s="0"/>
+      <c r="OC36" s="0"/>
+      <c r="OD36" s="0"/>
+      <c r="OE36" s="0"/>
+      <c r="OF36" s="0"/>
+      <c r="OG36" s="0"/>
+      <c r="OH36" s="0"/>
+      <c r="OI36" s="0"/>
+      <c r="OJ36" s="0"/>
+      <c r="OK36" s="0"/>
+      <c r="OL36" s="0"/>
+      <c r="OM36" s="0"/>
+      <c r="ON36" s="0"/>
+      <c r="OO36" s="0"/>
+      <c r="OP36" s="0"/>
+      <c r="OQ36" s="0"/>
+      <c r="OR36" s="0"/>
+      <c r="OS36" s="0"/>
+      <c r="OT36" s="0"/>
+      <c r="OU36" s="0"/>
+      <c r="OV36" s="0"/>
+      <c r="OW36" s="0"/>
+      <c r="OX36" s="0"/>
+      <c r="OY36" s="0"/>
+      <c r="OZ36" s="0"/>
+      <c r="PA36" s="0"/>
+      <c r="PB36" s="0"/>
+      <c r="PC36" s="0"/>
+      <c r="PD36" s="0"/>
+      <c r="PE36" s="0"/>
+      <c r="PF36" s="0"/>
+      <c r="PG36" s="0"/>
+      <c r="PH36" s="0"/>
+      <c r="PI36" s="0"/>
+      <c r="PJ36" s="0"/>
+      <c r="PK36" s="0"/>
+      <c r="PL36" s="0"/>
+      <c r="PM36" s="0"/>
+      <c r="PN36" s="0"/>
+      <c r="PO36" s="0"/>
+      <c r="PP36" s="0"/>
+      <c r="PQ36" s="0"/>
+      <c r="PR36" s="0"/>
+      <c r="PS36" s="0"/>
+      <c r="PT36" s="0"/>
+      <c r="PU36" s="0"/>
+      <c r="PV36" s="0"/>
+      <c r="PW36" s="0"/>
+      <c r="PX36" s="0"/>
+      <c r="PY36" s="0"/>
+      <c r="PZ36" s="0"/>
+      <c r="QA36" s="0"/>
+      <c r="QB36" s="0"/>
+      <c r="QC36" s="0"/>
+      <c r="QD36" s="0"/>
+      <c r="QE36" s="0"/>
+      <c r="QF36" s="0"/>
+      <c r="QG36" s="0"/>
+      <c r="QH36" s="0"/>
+      <c r="QI36" s="0"/>
+      <c r="QJ36" s="0"/>
+      <c r="QK36" s="0"/>
+      <c r="QL36" s="0"/>
+      <c r="QM36" s="0"/>
+      <c r="QN36" s="0"/>
+      <c r="QO36" s="0"/>
+      <c r="QP36" s="0"/>
+      <c r="QQ36" s="0"/>
+      <c r="QR36" s="0"/>
+      <c r="QS36" s="0"/>
+      <c r="QT36" s="0"/>
+      <c r="QU36" s="0"/>
+      <c r="QV36" s="0"/>
+      <c r="QW36" s="0"/>
+      <c r="QX36" s="0"/>
+      <c r="QY36" s="0"/>
+      <c r="QZ36" s="0"/>
+      <c r="RA36" s="0"/>
+      <c r="RB36" s="0"/>
+      <c r="RC36" s="0"/>
+      <c r="RD36" s="0"/>
+      <c r="RE36" s="0"/>
+      <c r="RF36" s="0"/>
+      <c r="RG36" s="0"/>
+      <c r="RH36" s="0"/>
+      <c r="RI36" s="0"/>
+      <c r="RJ36" s="0"/>
+      <c r="RK36" s="0"/>
+      <c r="RL36" s="0"/>
+      <c r="RM36" s="0"/>
+      <c r="RN36" s="0"/>
+      <c r="RO36" s="0"/>
+      <c r="RP36" s="0"/>
+      <c r="RQ36" s="0"/>
+      <c r="RR36" s="0"/>
+      <c r="RS36" s="0"/>
+      <c r="RT36" s="0"/>
+      <c r="RU36" s="0"/>
+      <c r="RV36" s="0"/>
+      <c r="RW36" s="0"/>
+      <c r="RX36" s="0"/>
+      <c r="RY36" s="0"/>
+      <c r="RZ36" s="0"/>
+      <c r="SA36" s="0"/>
+      <c r="SB36" s="0"/>
+      <c r="SC36" s="0"/>
+      <c r="SD36" s="0"/>
+      <c r="SE36" s="0"/>
+      <c r="SF36" s="0"/>
+      <c r="SG36" s="0"/>
+      <c r="SH36" s="0"/>
+      <c r="SI36" s="0"/>
+      <c r="SJ36" s="0"/>
+      <c r="SK36" s="0"/>
+      <c r="SL36" s="0"/>
+      <c r="SM36" s="0"/>
+      <c r="SN36" s="0"/>
+      <c r="SO36" s="0"/>
+      <c r="SP36" s="0"/>
+      <c r="SQ36" s="0"/>
+      <c r="SR36" s="0"/>
+      <c r="SS36" s="0"/>
+      <c r="ST36" s="0"/>
+      <c r="SU36" s="0"/>
+      <c r="SV36" s="0"/>
+      <c r="SW36" s="0"/>
+      <c r="SX36" s="0"/>
+      <c r="SY36" s="0"/>
+      <c r="SZ36" s="0"/>
+      <c r="TA36" s="0"/>
+      <c r="TB36" s="0"/>
+      <c r="TC36" s="0"/>
+      <c r="TD36" s="0"/>
+      <c r="TE36" s="0"/>
+      <c r="TF36" s="0"/>
+      <c r="TG36" s="0"/>
+      <c r="TH36" s="0"/>
+      <c r="TI36" s="0"/>
+      <c r="TJ36" s="0"/>
+      <c r="TK36" s="0"/>
+      <c r="TL36" s="0"/>
+      <c r="TM36" s="0"/>
+      <c r="TN36" s="0"/>
+      <c r="TO36" s="0"/>
+      <c r="TP36" s="0"/>
+      <c r="TQ36" s="0"/>
+      <c r="TR36" s="0"/>
+      <c r="TS36" s="0"/>
+      <c r="TT36" s="0"/>
+      <c r="TU36" s="0"/>
+      <c r="TV36" s="0"/>
+      <c r="TW36" s="0"/>
+      <c r="TX36" s="0"/>
+      <c r="TY36" s="0"/>
+      <c r="TZ36" s="0"/>
+      <c r="UA36" s="0"/>
+      <c r="UB36" s="0"/>
+      <c r="UC36" s="0"/>
+      <c r="UD36" s="0"/>
+      <c r="UE36" s="0"/>
+      <c r="UF36" s="0"/>
+      <c r="UG36" s="0"/>
+      <c r="UH36" s="0"/>
+      <c r="UI36" s="0"/>
+      <c r="UJ36" s="0"/>
+      <c r="UK36" s="0"/>
+      <c r="UL36" s="0"/>
+      <c r="UM36" s="0"/>
+      <c r="UN36" s="0"/>
+      <c r="UO36" s="0"/>
+      <c r="UP36" s="0"/>
+      <c r="UQ36" s="0"/>
+      <c r="UR36" s="0"/>
+      <c r="US36" s="0"/>
+      <c r="UT36" s="0"/>
+      <c r="UU36" s="0"/>
+      <c r="UV36" s="0"/>
+      <c r="UW36" s="0"/>
+      <c r="UX36" s="0"/>
+      <c r="UY36" s="0"/>
+      <c r="UZ36" s="0"/>
+      <c r="VA36" s="0"/>
+      <c r="VB36" s="0"/>
+      <c r="VC36" s="0"/>
+      <c r="VD36" s="0"/>
+      <c r="VE36" s="0"/>
+      <c r="VF36" s="0"/>
+      <c r="VG36" s="0"/>
+      <c r="VH36" s="0"/>
+      <c r="VI36" s="0"/>
+      <c r="VJ36" s="0"/>
+      <c r="VK36" s="0"/>
+      <c r="VL36" s="0"/>
+      <c r="VM36" s="0"/>
+      <c r="VN36" s="0"/>
+      <c r="VO36" s="0"/>
+      <c r="VP36" s="0"/>
+      <c r="VQ36" s="0"/>
+      <c r="VR36" s="0"/>
+      <c r="VS36" s="0"/>
+      <c r="VT36" s="0"/>
+      <c r="VU36" s="0"/>
+      <c r="VV36" s="0"/>
+      <c r="VW36" s="0"/>
+      <c r="VX36" s="0"/>
+      <c r="VY36" s="0"/>
+      <c r="VZ36" s="0"/>
+      <c r="WA36" s="0"/>
+      <c r="WB36" s="0"/>
+      <c r="WC36" s="0"/>
+      <c r="WD36" s="0"/>
+      <c r="WE36" s="0"/>
+      <c r="WF36" s="0"/>
+      <c r="WG36" s="0"/>
+      <c r="WH36" s="0"/>
+      <c r="WI36" s="0"/>
+      <c r="WJ36" s="0"/>
+      <c r="WK36" s="0"/>
+      <c r="WL36" s="0"/>
+      <c r="WM36" s="0"/>
+      <c r="WN36" s="0"/>
+      <c r="WO36" s="0"/>
+      <c r="WP36" s="0"/>
+      <c r="WQ36" s="0"/>
+      <c r="WR36" s="0"/>
+      <c r="WS36" s="0"/>
+      <c r="WT36" s="0"/>
+      <c r="WU36" s="0"/>
+      <c r="WV36" s="0"/>
+      <c r="WW36" s="0"/>
+      <c r="WX36" s="0"/>
+      <c r="WY36" s="0"/>
+      <c r="WZ36" s="0"/>
+      <c r="XA36" s="0"/>
+      <c r="XB36" s="0"/>
+      <c r="XC36" s="0"/>
+      <c r="XD36" s="0"/>
+      <c r="XE36" s="0"/>
+      <c r="XF36" s="0"/>
+      <c r="XG36" s="0"/>
+      <c r="XH36" s="0"/>
+      <c r="XI36" s="0"/>
+      <c r="XJ36" s="0"/>
+      <c r="XK36" s="0"/>
+      <c r="XL36" s="0"/>
+      <c r="XM36" s="0"/>
+      <c r="XN36" s="0"/>
+      <c r="XO36" s="0"/>
+      <c r="XP36" s="0"/>
+      <c r="XQ36" s="0"/>
+      <c r="XR36" s="0"/>
+      <c r="XS36" s="0"/>
+      <c r="XT36" s="0"/>
+      <c r="XU36" s="0"/>
+      <c r="XV36" s="0"/>
+      <c r="XW36" s="0"/>
+      <c r="XX36" s="0"/>
+      <c r="XY36" s="0"/>
+      <c r="XZ36" s="0"/>
+      <c r="YA36" s="0"/>
+      <c r="YB36" s="0"/>
+      <c r="YC36" s="0"/>
+      <c r="YD36" s="0"/>
+      <c r="YE36" s="0"/>
+      <c r="YF36" s="0"/>
+      <c r="YG36" s="0"/>
+      <c r="YH36" s="0"/>
+      <c r="YI36" s="0"/>
+      <c r="YJ36" s="0"/>
+      <c r="YK36" s="0"/>
+      <c r="YL36" s="0"/>
+      <c r="YM36" s="0"/>
+      <c r="YN36" s="0"/>
+      <c r="YO36" s="0"/>
+      <c r="YP36" s="0"/>
+      <c r="YQ36" s="0"/>
+      <c r="YR36" s="0"/>
+      <c r="YS36" s="0"/>
+      <c r="YT36" s="0"/>
+      <c r="YU36" s="0"/>
+      <c r="YV36" s="0"/>
+      <c r="YW36" s="0"/>
+      <c r="YX36" s="0"/>
+      <c r="YY36" s="0"/>
+      <c r="YZ36" s="0"/>
+      <c r="ZA36" s="0"/>
+      <c r="ZB36" s="0"/>
+      <c r="ZC36" s="0"/>
+      <c r="ZD36" s="0"/>
+      <c r="ZE36" s="0"/>
+      <c r="ZF36" s="0"/>
+      <c r="ZG36" s="0"/>
+      <c r="ZH36" s="0"/>
+      <c r="ZI36" s="0"/>
+      <c r="ZJ36" s="0"/>
+      <c r="ZK36" s="0"/>
+      <c r="ZL36" s="0"/>
+      <c r="ZM36" s="0"/>
+      <c r="ZN36" s="0"/>
+      <c r="ZO36" s="0"/>
+      <c r="ZP36" s="0"/>
+      <c r="ZQ36" s="0"/>
+      <c r="ZR36" s="0"/>
+      <c r="ZS36" s="0"/>
+      <c r="ZT36" s="0"/>
+      <c r="ZU36" s="0"/>
+      <c r="ZV36" s="0"/>
+      <c r="ZW36" s="0"/>
+      <c r="ZX36" s="0"/>
+      <c r="ZY36" s="0"/>
+      <c r="ZZ36" s="0"/>
+      <c r="AAA36" s="0"/>
+      <c r="AAB36" s="0"/>
+      <c r="AAC36" s="0"/>
+      <c r="AAD36" s="0"/>
+      <c r="AAE36" s="0"/>
+      <c r="AAF36" s="0"/>
+      <c r="AAG36" s="0"/>
+      <c r="AAH36" s="0"/>
+      <c r="AAI36" s="0"/>
+      <c r="AAJ36" s="0"/>
+      <c r="AAK36" s="0"/>
+      <c r="AAL36" s="0"/>
+      <c r="AAM36" s="0"/>
+      <c r="AAN36" s="0"/>
+      <c r="AAO36" s="0"/>
+      <c r="AAP36" s="0"/>
+      <c r="AAQ36" s="0"/>
+      <c r="AAR36" s="0"/>
+      <c r="AAS36" s="0"/>
+      <c r="AAT36" s="0"/>
+      <c r="AAU36" s="0"/>
+      <c r="AAV36" s="0"/>
+      <c r="AAW36" s="0"/>
+      <c r="AAX36" s="0"/>
+      <c r="AAY36" s="0"/>
+      <c r="AAZ36" s="0"/>
+      <c r="ABA36" s="0"/>
+      <c r="ABB36" s="0"/>
+      <c r="ABC36" s="0"/>
+      <c r="ABD36" s="0"/>
+      <c r="ABE36" s="0"/>
+      <c r="ABF36" s="0"/>
+      <c r="ABG36" s="0"/>
+      <c r="ABH36" s="0"/>
+      <c r="ABI36" s="0"/>
+      <c r="ABJ36" s="0"/>
+      <c r="ABK36" s="0"/>
+      <c r="ABL36" s="0"/>
+      <c r="ABM36" s="0"/>
+      <c r="ABN36" s="0"/>
+      <c r="ABO36" s="0"/>
+      <c r="ABP36" s="0"/>
+      <c r="ABQ36" s="0"/>
+      <c r="ABR36" s="0"/>
+      <c r="ABS36" s="0"/>
+      <c r="ABT36" s="0"/>
+      <c r="ABU36" s="0"/>
+      <c r="ABV36" s="0"/>
+      <c r="ABW36" s="0"/>
+      <c r="ABX36" s="0"/>
+      <c r="ABY36" s="0"/>
+      <c r="ABZ36" s="0"/>
+      <c r="ACA36" s="0"/>
+      <c r="ACB36" s="0"/>
+      <c r="ACC36" s="0"/>
+      <c r="ACD36" s="0"/>
+      <c r="ACE36" s="0"/>
+      <c r="ACF36" s="0"/>
+      <c r="ACG36" s="0"/>
+      <c r="ACH36" s="0"/>
+      <c r="ACI36" s="0"/>
+      <c r="ACJ36" s="0"/>
+      <c r="ACK36" s="0"/>
+      <c r="ACL36" s="0"/>
+      <c r="ACM36" s="0"/>
+      <c r="ACN36" s="0"/>
+      <c r="ACO36" s="0"/>
+      <c r="ACP36" s="0"/>
+      <c r="ACQ36" s="0"/>
+      <c r="ACR36" s="0"/>
+      <c r="ACS36" s="0"/>
+      <c r="ACT36" s="0"/>
+      <c r="ACU36" s="0"/>
+      <c r="ACV36" s="0"/>
+      <c r="ACW36" s="0"/>
+      <c r="ACX36" s="0"/>
+      <c r="ACY36" s="0"/>
+      <c r="ACZ36" s="0"/>
+      <c r="ADA36" s="0"/>
+      <c r="ADB36" s="0"/>
+      <c r="ADC36" s="0"/>
+      <c r="ADD36" s="0"/>
+      <c r="ADE36" s="0"/>
+      <c r="ADF36" s="0"/>
+      <c r="ADG36" s="0"/>
+      <c r="ADH36" s="0"/>
+      <c r="ADI36" s="0"/>
+      <c r="ADJ36" s="0"/>
+      <c r="ADK36" s="0"/>
+      <c r="ADL36" s="0"/>
+      <c r="ADM36" s="0"/>
+      <c r="ADN36" s="0"/>
+      <c r="ADO36" s="0"/>
+      <c r="ADP36" s="0"/>
+      <c r="ADQ36" s="0"/>
+      <c r="ADR36" s="0"/>
+      <c r="ADS36" s="0"/>
+      <c r="ADT36" s="0"/>
+      <c r="ADU36" s="0"/>
+      <c r="ADV36" s="0"/>
+      <c r="ADW36" s="0"/>
+      <c r="ADX36" s="0"/>
+      <c r="ADY36" s="0"/>
+      <c r="ADZ36" s="0"/>
+      <c r="AEA36" s="0"/>
+      <c r="AEB36" s="0"/>
+      <c r="AEC36" s="0"/>
+      <c r="AED36" s="0"/>
+      <c r="AEE36" s="0"/>
+      <c r="AEF36" s="0"/>
+      <c r="AEG36" s="0"/>
+      <c r="AEH36" s="0"/>
+      <c r="AEI36" s="0"/>
+      <c r="AEJ36" s="0"/>
+      <c r="AEK36" s="0"/>
+      <c r="AEL36" s="0"/>
+      <c r="AEM36" s="0"/>
+      <c r="AEN36" s="0"/>
+      <c r="AEO36" s="0"/>
+      <c r="AEP36" s="0"/>
+      <c r="AEQ36" s="0"/>
+      <c r="AER36" s="0"/>
+      <c r="AES36" s="0"/>
+      <c r="AET36" s="0"/>
+      <c r="AEU36" s="0"/>
+      <c r="AEV36" s="0"/>
+      <c r="AEW36" s="0"/>
+      <c r="AEX36" s="0"/>
+      <c r="AEY36" s="0"/>
+      <c r="AEZ36" s="0"/>
+      <c r="AFA36" s="0"/>
+      <c r="AFB36" s="0"/>
+      <c r="AFC36" s="0"/>
+      <c r="AFD36" s="0"/>
+      <c r="AFE36" s="0"/>
+      <c r="AFF36" s="0"/>
+      <c r="AFG36" s="0"/>
+      <c r="AFH36" s="0"/>
+      <c r="AFI36" s="0"/>
+      <c r="AFJ36" s="0"/>
+      <c r="AFK36" s="0"/>
+      <c r="AFL36" s="0"/>
+      <c r="AFM36" s="0"/>
+      <c r="AFN36" s="0"/>
+      <c r="AFO36" s="0"/>
+      <c r="AFP36" s="0"/>
+      <c r="AFQ36" s="0"/>
+      <c r="AFR36" s="0"/>
+      <c r="AFS36" s="0"/>
+      <c r="AFT36" s="0"/>
+      <c r="AFU36" s="0"/>
+      <c r="AFV36" s="0"/>
+      <c r="AFW36" s="0"/>
+      <c r="AFX36" s="0"/>
+      <c r="AFY36" s="0"/>
+      <c r="AFZ36" s="0"/>
+      <c r="AGA36" s="0"/>
+      <c r="AGB36" s="0"/>
+      <c r="AGC36" s="0"/>
+      <c r="AGD36" s="0"/>
+      <c r="AGE36" s="0"/>
+      <c r="AGF36" s="0"/>
+      <c r="AGG36" s="0"/>
+      <c r="AGH36" s="0"/>
+      <c r="AGI36" s="0"/>
+      <c r="AGJ36" s="0"/>
+      <c r="AGK36" s="0"/>
+      <c r="AGL36" s="0"/>
+      <c r="AGM36" s="0"/>
+      <c r="AGN36" s="0"/>
+      <c r="AGO36" s="0"/>
+      <c r="AGP36" s="0"/>
+      <c r="AGQ36" s="0"/>
+      <c r="AGR36" s="0"/>
+      <c r="AGS36" s="0"/>
+      <c r="AGT36" s="0"/>
+      <c r="AGU36" s="0"/>
+      <c r="AGV36" s="0"/>
+      <c r="AGW36" s="0"/>
+      <c r="AGX36" s="0"/>
+      <c r="AGY36" s="0"/>
+      <c r="AGZ36" s="0"/>
+      <c r="AHA36" s="0"/>
+      <c r="AHB36" s="0"/>
+      <c r="AHC36" s="0"/>
+      <c r="AHD36" s="0"/>
+      <c r="AHE36" s="0"/>
+      <c r="AHF36" s="0"/>
+      <c r="AHG36" s="0"/>
+      <c r="AHH36" s="0"/>
+      <c r="AHI36" s="0"/>
+      <c r="AHJ36" s="0"/>
+      <c r="AHK36" s="0"/>
+      <c r="AHL36" s="0"/>
+      <c r="AHM36" s="0"/>
+      <c r="AHN36" s="0"/>
+      <c r="AHO36" s="0"/>
+      <c r="AHP36" s="0"/>
+      <c r="AHQ36" s="0"/>
+      <c r="AHR36" s="0"/>
+      <c r="AHS36" s="0"/>
+      <c r="AHT36" s="0"/>
+      <c r="AHU36" s="0"/>
+      <c r="AHV36" s="0"/>
+      <c r="AHW36" s="0"/>
+      <c r="AHX36" s="0"/>
+      <c r="AHY36" s="0"/>
+      <c r="AHZ36" s="0"/>
+      <c r="AIA36" s="0"/>
+      <c r="AIB36" s="0"/>
+      <c r="AIC36" s="0"/>
+      <c r="AID36" s="0"/>
+      <c r="AIE36" s="0"/>
+      <c r="AIF36" s="0"/>
+      <c r="AIG36" s="0"/>
+      <c r="AIH36" s="0"/>
+      <c r="AII36" s="0"/>
+      <c r="AIJ36" s="0"/>
+      <c r="AIK36" s="0"/>
+      <c r="AIL36" s="0"/>
+      <c r="AIM36" s="0"/>
+      <c r="AIN36" s="0"/>
+      <c r="AIO36" s="0"/>
+      <c r="AIP36" s="0"/>
+      <c r="AIQ36" s="0"/>
+      <c r="AIR36" s="0"/>
+      <c r="AIS36" s="0"/>
+      <c r="AIT36" s="0"/>
+      <c r="AIU36" s="0"/>
+      <c r="AIV36" s="0"/>
+      <c r="AIW36" s="0"/>
+      <c r="AIX36" s="0"/>
+      <c r="AIY36" s="0"/>
+      <c r="AIZ36" s="0"/>
+      <c r="AJA36" s="0"/>
+      <c r="AJB36" s="0"/>
+      <c r="AJC36" s="0"/>
+      <c r="AJD36" s="0"/>
+      <c r="AJE36" s="0"/>
+      <c r="AJF36" s="0"/>
+      <c r="AJG36" s="0"/>
+      <c r="AJH36" s="0"/>
+      <c r="AJI36" s="0"/>
+      <c r="AJJ36" s="0"/>
+      <c r="AJK36" s="0"/>
+      <c r="AJL36" s="0"/>
+      <c r="AJM36" s="0"/>
+      <c r="AJN36" s="0"/>
+      <c r="AJO36" s="0"/>
+      <c r="AJP36" s="0"/>
+      <c r="AJQ36" s="0"/>
+      <c r="AJR36" s="0"/>
+      <c r="AJS36" s="0"/>
+      <c r="AJT36" s="0"/>
+      <c r="AJU36" s="0"/>
+      <c r="AJV36" s="0"/>
+      <c r="AJW36" s="0"/>
+      <c r="AJX36" s="0"/>
+      <c r="AJY36" s="0"/>
+      <c r="AJZ36" s="0"/>
+      <c r="AKA36" s="0"/>
+      <c r="AKB36" s="0"/>
+      <c r="AKC36" s="0"/>
+      <c r="AKD36" s="0"/>
+      <c r="AKE36" s="0"/>
+      <c r="AKF36" s="0"/>
+      <c r="AKG36" s="0"/>
+      <c r="AKH36" s="0"/>
+      <c r="AKI36" s="0"/>
+      <c r="AKJ36" s="0"/>
+      <c r="AKK36" s="0"/>
+      <c r="AKL36" s="0"/>
+      <c r="AKM36" s="0"/>
+      <c r="AKN36" s="0"/>
+      <c r="AKO36" s="0"/>
+      <c r="AKP36" s="0"/>
+      <c r="AKQ36" s="0"/>
+      <c r="AKR36" s="0"/>
+      <c r="AKS36" s="0"/>
+      <c r="AKT36" s="0"/>
+      <c r="AKU36" s="0"/>
+      <c r="AKV36" s="0"/>
+      <c r="AKW36" s="0"/>
+      <c r="AKX36" s="0"/>
+      <c r="AKY36" s="0"/>
+      <c r="AKZ36" s="0"/>
+      <c r="ALA36" s="0"/>
+      <c r="ALB36" s="0"/>
+      <c r="ALC36" s="0"/>
+      <c r="ALD36" s="0"/>
+      <c r="ALE36" s="0"/>
+      <c r="ALF36" s="0"/>
+      <c r="ALG36" s="0"/>
+      <c r="ALH36" s="0"/>
+      <c r="ALI36" s="0"/>
+      <c r="ALJ36" s="0"/>
+      <c r="ALK36" s="0"/>
+      <c r="ALL36" s="0"/>
+      <c r="ALM36" s="0"/>
+      <c r="ALN36" s="0"/>
+      <c r="ALO36" s="0"/>
+      <c r="ALP36" s="0"/>
+      <c r="ALQ36" s="0"/>
+      <c r="ALR36" s="0"/>
+      <c r="ALS36" s="0"/>
+      <c r="ALT36" s="0"/>
+      <c r="ALU36" s="0"/>
+      <c r="ALV36" s="0"/>
+      <c r="ALW36" s="0"/>
+      <c r="ALX36" s="0"/>
+      <c r="ALY36" s="0"/>
+      <c r="ALZ36" s="0"/>
+      <c r="AMA36" s="0"/>
+      <c r="AMB36" s="0"/>
+      <c r="AMC36" s="0"/>
+      <c r="AMD36" s="0"/>
+      <c r="AME36" s="0"/>
+      <c r="AMF36" s="0"/>
+      <c r="AMG36" s="0"/>
+      <c r="AMH36" s="0"/>
+      <c r="AMI36" s="0"/>
+      <c r="AMJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
@@ -41727,10 +42687,10 @@
       <c r="Z38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA38" s="43" t="n">
+      <c r="AA38" s="44" t="n">
         <v>2471</v>
       </c>
-      <c r="AB38" s="43" t="n">
+      <c r="AB38" s="44" t="n">
         <v>2471</v>
       </c>
       <c r="AC38" s="4" t="s">
@@ -41742,7 +42702,7 @@
       <c r="AE38" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="AF38" s="43" t="n">
+      <c r="AF38" s="44" t="n">
         <v>2471</v>
       </c>
       <c r="AG38" s="4" t="s">
@@ -43168,7 +44128,6 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="AG16:AH16"/>
